--- a/ExcelReportGenerator.Tests/TestData/DefaultReportGeneratorTest/TestRenderPartialWorksheets.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DefaultReportGeneratorTest/TestRenderPartialWorksheets.xlsx
@@ -12,7 +12,6 @@
   <x:definedNames>
     <x:definedName name="s_Simple" localSheetId="0">Sheet1!$G$2:$H$3</x:definedName>
     <x:definedName name="t_Totals" comment="DataSource = m:DataProvider:GetIEnumerable(); BeforeRenderMethodName = TestExcelTotalsPanelBeforeRender; AfterRenderMethodName = TestExcelTotalsPanelAfterRender" localSheetId="1">Sheet2!$B$6:$G$6</x:definedName>
-    <x:definedName name="d_Child" comment="ParentPanel = d_Parent&#13;&#10;DataSource = m:DataProvider:GetChildIEnumerable(di:Name)">Sheet1!$B$9:$E$9</x:definedName>
     <x:definedName name="dyn_Dynamic" comment="DataSource = m:DataProvider:GetAllCustomersDataReader()">Sheet2!$B$2:$B$4</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>

--- a/ExcelReportGenerator.Tests/TestData/DefaultReportGeneratorTest/TestRenderPartialWorksheets.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DefaultReportGeneratorTest/TestRenderPartialWorksheets.xlsx
@@ -451,13 +451,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H9"/>
+  <x:dimension ref="A1:J18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="2" spans="1:8">
+    <x:row r="2" spans="1:10">
       <x:c r="B2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -467,8 +467,11 @@
       <x:c r="G2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8">
+      <x:c r="J2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:10">
       <x:c r="C3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
@@ -481,8 +484,11 @@
       <x:c r="H3" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8">
+      <x:c r="J3" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:10">
       <x:c r="C4" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -492,8 +498,11 @@
       <x:c r="E4" s="0" t="n">
         <x:v>55.76</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8">
+      <x:c r="J4" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:10">
       <x:c r="C5" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -503,24 +512,33 @@
       <x:c r="E5" s="0" t="n">
         <x:v>55.76</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:8">
+      <x:c r="J5" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:10">
       <x:c r="B6" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C6" s="1">
         <x:v>43041</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:8">
+      <x:c r="J6" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:10">
       <x:c r="B7" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C7" s="1">
         <x:v>43042</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:8">
+      <x:c r="J7" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:10">
       <x:c r="C8" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
@@ -530,8 +548,11 @@
       <x:c r="E8" s="0" t="n">
         <x:v>5500.8</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:8">
+      <x:c r="J8" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:10">
       <x:c r="C9" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
@@ -540,6 +561,19 @@
       </x:c>
       <x:c r="E9" s="0" t="n">
         <x:v>5500.8</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="J10" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="J11" s="0" t="n">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
